--- a/research/hits-masterv2.xlsx
+++ b/research/hits-masterv2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="49">
   <si>
     <t>Ichiro Suzuki (w/Japan)</t>
   </si>
@@ -283,8 +283,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -308,15 +318,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -646,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="G201" sqref="G201:G223"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -685,22 +705,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17">
@@ -708,22 +728,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17">
@@ -731,22 +751,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>546</v>
-      </c>
-      <c r="F4" s="4">
-        <v>210</v>
+      <c r="E4" s="2">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>246</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17">
@@ -754,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C5" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <v>524</v>
+      <c r="E5" s="3">
+        <v>546</v>
       </c>
       <c r="F5" s="4">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="G5">
-        <v>425</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17">
@@ -777,22 +797,22 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C6" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
-        <v>542</v>
+      <c r="E6" s="2">
+        <v>524</v>
       </c>
       <c r="F6" s="4">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G6">
-        <v>618</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17">
@@ -800,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C7" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>536</v>
+      <c r="E7" s="4">
+        <v>542</v>
       </c>
       <c r="F7" s="4">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G7">
-        <v>803</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17">
@@ -823,22 +843,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C8" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="F8" s="4">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G8">
-        <v>984</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17">
@@ -846,22 +866,22 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C9" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>411</v>
-      </c>
-      <c r="F9" s="2">
-        <v>141</v>
+        <v>506</v>
+      </c>
+      <c r="F9" s="4">
+        <v>181</v>
       </c>
       <c r="G9">
-        <v>1125</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17">
@@ -869,45 +889,45 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C10" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="F10" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G10">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>2001</v>
-      </c>
-      <c r="C11" s="5">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>692</v>
-      </c>
-      <c r="F11" s="6">
-        <v>242</v>
+      <c r="B11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>395</v>
+      </c>
+      <c r="F11" s="2">
+        <v>153</v>
       </c>
       <c r="G11">
-        <v>1520</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16">
@@ -915,22 +935,22 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C12" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
-        <v>647</v>
-      </c>
-      <c r="F12" s="7">
-        <v>208</v>
+      <c r="E12" s="6">
+        <v>692</v>
+      </c>
+      <c r="F12" s="6">
+        <v>242</v>
       </c>
       <c r="G12">
-        <v>1728</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16">
@@ -938,22 +958,22 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C13" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="7">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="F13" s="7">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13">
-        <v>1940</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16">
@@ -961,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C14" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="6">
-        <v>704</v>
-      </c>
-      <c r="F14" s="6">
-        <v>262</v>
+      <c r="E14" s="7">
+        <v>679</v>
+      </c>
+      <c r="F14" s="7">
+        <v>212</v>
       </c>
       <c r="G14">
-        <v>2202</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16">
@@ -984,22 +1004,22 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C15" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="8">
-        <v>679</v>
-      </c>
-      <c r="F15" s="7">
-        <v>206</v>
+      <c r="E15" s="6">
+        <v>704</v>
+      </c>
+      <c r="F15" s="6">
+        <v>262</v>
       </c>
       <c r="G15">
-        <v>2408</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16">
@@ -1007,22 +1027,22 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C16" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="8">
-        <v>695</v>
-      </c>
-      <c r="F16" s="6">
-        <v>224</v>
+        <v>679</v>
+      </c>
+      <c r="F16" s="7">
+        <v>206</v>
       </c>
       <c r="G16">
-        <v>2632</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16">
@@ -1030,22 +1050,22 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C17" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="8">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="F17" s="6">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G17">
-        <v>2870</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16">
@@ -1053,22 +1073,22 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C18" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="8">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F18" s="6">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G18">
-        <v>3083</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16">
@@ -1076,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C19" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="7">
-        <v>639</v>
+      <c r="E19" s="8">
+        <v>686</v>
       </c>
       <c r="F19" s="6">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G19">
-        <v>3308</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16">
@@ -1099,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C20" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="6">
-        <v>680</v>
+      <c r="E20" s="7">
+        <v>639</v>
       </c>
       <c r="F20" s="6">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G20">
-        <v>3522</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16">
@@ -1122,22 +1142,22 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C21" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="6">
-        <v>677</v>
-      </c>
-      <c r="F21" s="7">
-        <v>184</v>
+        <v>680</v>
+      </c>
+      <c r="F21" s="6">
+        <v>214</v>
       </c>
       <c r="G21">
-        <v>3706</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16">
@@ -1145,22 +1165,22 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C22" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
-        <v>629</v>
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>677</v>
       </c>
       <c r="F22" s="7">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G22">
-        <v>3884</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16">
@@ -1168,45 +1188,45 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C23" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9">
-        <v>395</v>
-      </c>
-      <c r="F23" s="9">
-        <v>116</v>
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>629</v>
+      </c>
+      <c r="F23" s="7">
+        <v>178</v>
       </c>
       <c r="G23">
-        <v>4000</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C24" s="5">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6">
-        <v>692</v>
-      </c>
-      <c r="F24" s="6">
-        <v>242</v>
+        <v>4</v>
+      </c>
+      <c r="E24" s="9">
+        <v>395</v>
+      </c>
+      <c r="F24" s="9">
+        <v>116</v>
       </c>
       <c r="G24">
-        <v>242</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16">
@@ -1214,22 +1234,22 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C25" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="7">
-        <v>647</v>
-      </c>
-      <c r="F25" s="7">
-        <v>208</v>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16">
@@ -1237,22 +1257,22 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C26" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="7">
-        <v>679</v>
-      </c>
-      <c r="F26" s="7">
-        <v>212</v>
+      <c r="E26" s="6">
+        <v>692</v>
+      </c>
+      <c r="F26" s="6">
+        <v>242</v>
       </c>
       <c r="G26">
-        <v>662</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16">
@@ -1260,22 +1280,22 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C27" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="6">
-        <v>704</v>
-      </c>
-      <c r="F27" s="6">
-        <v>262</v>
+      <c r="E27" s="7">
+        <v>647</v>
+      </c>
+      <c r="F27" s="7">
+        <v>208</v>
       </c>
       <c r="G27">
-        <v>924</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16">
@@ -1283,22 +1303,22 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C28" s="5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>679</v>
       </c>
       <c r="F28" s="7">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G28">
-        <v>1130</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16">
@@ -1306,22 +1326,22 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C29" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="8">
-        <v>695</v>
+      <c r="E29" s="6">
+        <v>704</v>
       </c>
       <c r="F29" s="6">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="G29">
-        <v>1354</v>
+        <v>924</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16">
@@ -1329,22 +1349,22 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C30" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="8">
-        <v>678</v>
-      </c>
-      <c r="F30" s="6">
-        <v>238</v>
+        <v>679</v>
+      </c>
+      <c r="F30" s="7">
+        <v>206</v>
       </c>
       <c r="G30">
-        <v>1592</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16">
@@ -1352,22 +1372,22 @@
         <v>12</v>
       </c>
       <c r="B31">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C31" s="5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="8">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="F31" s="6">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G31">
-        <v>1805</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16">
@@ -1375,22 +1395,22 @@
         <v>12</v>
       </c>
       <c r="B32">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C32" s="5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="7">
-        <v>639</v>
+      <c r="E32" s="8">
+        <v>678</v>
       </c>
       <c r="F32" s="6">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G32">
-        <v>2030</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16">
@@ -1398,22 +1418,22 @@
         <v>12</v>
       </c>
       <c r="B33">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C33" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="6">
-        <v>680</v>
+      <c r="E33" s="8">
+        <v>686</v>
       </c>
       <c r="F33" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G33">
-        <v>2244</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16">
@@ -1421,22 +1441,22 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C34" s="5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="6">
-        <v>677</v>
-      </c>
-      <c r="F34" s="7">
-        <v>184</v>
+      <c r="E34" s="7">
+        <v>639</v>
+      </c>
+      <c r="F34" s="6">
+        <v>225</v>
       </c>
       <c r="G34">
-        <v>2428</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16">
@@ -1444,22 +1464,22 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C35" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="7">
-        <v>629</v>
-      </c>
-      <c r="F35" s="7">
-        <v>178</v>
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>680</v>
+      </c>
+      <c r="F35" s="6">
+        <v>214</v>
       </c>
       <c r="G35">
-        <v>2606</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16">
@@ -1467,68 +1487,68 @@
         <v>12</v>
       </c>
       <c r="B36">
+        <v>2011</v>
+      </c>
+      <c r="C36" s="5">
+        <v>37</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>677</v>
+      </c>
+      <c r="F36" s="7">
+        <v>184</v>
+      </c>
+      <c r="G36">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>2012</v>
+      </c>
+      <c r="C37" s="5">
+        <v>38</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7">
+        <v>629</v>
+      </c>
+      <c r="F37" s="7">
+        <v>178</v>
+      </c>
+      <c r="G37">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
         <v>2013</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C38" s="5">
         <v>39</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E38" s="9">
         <v>395</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F38" s="9">
         <v>116</v>
       </c>
-      <c r="G36">
+      <c r="G38">
         <v>2722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37">
-        <v>1963</v>
-      </c>
-      <c r="C37">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37">
-        <v>623</v>
-      </c>
-      <c r="F37">
-        <v>170</v>
-      </c>
-      <c r="G37">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>1964</v>
-      </c>
-      <c r="C38">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38">
-        <v>516</v>
-      </c>
-      <c r="F38">
-        <v>139</v>
-      </c>
-      <c r="G38">
-        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1536,22 +1556,22 @@
         <v>13</v>
       </c>
       <c r="B39">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
       <c r="E39">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1559,22 +1579,22 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="F40">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="G40">
-        <v>723</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1582,22 +1602,22 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="F41">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G41">
-        <v>899</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1605,22 +1625,22 @@
         <v>13</v>
       </c>
       <c r="B42">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="F42">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G42">
-        <v>1109</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1628,22 +1648,22 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="F43">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G43">
-        <v>1327</v>
+        <v>723</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1651,22 +1671,22 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="F44">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="G44">
-        <v>1532</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1674,22 +1694,22 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
       </c>
       <c r="E45">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F45">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G45">
-        <v>1724</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1697,22 +1717,22 @@
         <v>13</v>
       </c>
       <c r="B46">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
       <c r="E46">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="F46">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G46">
-        <v>1922</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1720,22 +1740,22 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="C47">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
       </c>
       <c r="E47">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="F47">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="G47">
-        <v>2152</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1743,22 +1763,22 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="C48">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="F48">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G48">
-        <v>2337</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1766,22 +1786,22 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
       <c r="E49">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="F49">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G49">
-        <v>2547</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1789,22 +1809,22 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
       <c r="E50">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="F50">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G50">
-        <v>2762</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1812,22 +1832,22 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="C51">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="E51">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F51">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G51">
-        <v>2966</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1835,22 +1855,22 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="C52">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
       <c r="E52">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="F52">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G52">
-        <v>3164</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1858,22 +1878,22 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="C53">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="F53">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G53">
-        <v>3372</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1881,22 +1901,22 @@
         <v>13</v>
       </c>
       <c r="B54">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>655</v>
       </c>
       <c r="F54">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G54">
-        <v>3557</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1904,22 +1924,22 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55">
-        <v>431</v>
+        <v>655</v>
       </c>
       <c r="F55">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="G55">
-        <v>3697</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1927,22 +1947,22 @@
         <v>13</v>
       </c>
       <c r="B56">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="C56">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F56">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="G56">
-        <v>3869</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1950,22 +1970,22 @@
         <v>13</v>
       </c>
       <c r="B57">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="C57">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57">
-        <v>493</v>
+        <v>655</v>
       </c>
       <c r="F57">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="G57">
-        <v>3990</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1973,22 +1993,22 @@
         <v>13</v>
       </c>
       <c r="B58">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="F58">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="G58">
-        <v>4097</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1996,22 +2016,22 @@
         <v>13</v>
       </c>
       <c r="B59">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="C59">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>405</v>
+        <v>634</v>
       </c>
       <c r="F59">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="G59">
-        <v>4204</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2019,91 +2039,91 @@
         <v>13</v>
       </c>
       <c r="B60">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="C60">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>237</v>
+        <v>493</v>
       </c>
       <c r="F60">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G60">
-        <v>4256</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>1905</v>
+        <v>1984</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>150</v>
+        <v>374</v>
       </c>
       <c r="F61">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="G61">
-        <v>36</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>1906</v>
+        <v>1985</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="F62">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G62">
-        <v>149</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>1907</v>
+        <v>1986</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>605</v>
+        <v>237</v>
       </c>
       <c r="F63">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="G63">
-        <v>361</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2111,22 +2131,22 @@
         <v>17</v>
       </c>
       <c r="B64">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64">
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2134,22 +2154,22 @@
         <v>17</v>
       </c>
       <c r="B65">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
       </c>
       <c r="E65">
-        <v>573</v>
+        <v>150</v>
       </c>
       <c r="F65">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="G65">
-        <v>765</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2157,22 +2177,22 @@
         <v>17</v>
       </c>
       <c r="B66">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
       </c>
       <c r="E66">
-        <v>506</v>
+        <v>358</v>
       </c>
       <c r="F66">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="G66">
-        <v>959</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2180,22 +2200,22 @@
         <v>17</v>
       </c>
       <c r="B67">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="C67">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="F67">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="G67">
-        <v>1207</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2203,22 +2223,22 @@
         <v>17</v>
       </c>
       <c r="B68">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
       </c>
       <c r="E68">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="F68">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="G68">
-        <v>1433</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2226,22 +2246,22 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="C69">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69">
-        <v>428</v>
+        <v>573</v>
       </c>
       <c r="F69">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="G69">
-        <v>1600</v>
+        <v>765</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2249,22 +2269,22 @@
         <v>17</v>
       </c>
       <c r="B70">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="F70">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="G70">
-        <v>1727</v>
+        <v>959</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2272,22 +2292,22 @@
         <v>17</v>
       </c>
       <c r="B71">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
       </c>
       <c r="E71">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="F71">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="G71">
-        <v>1935</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2295,22 +2315,22 @@
         <v>17</v>
       </c>
       <c r="B72">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="C72">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="E72">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="F72">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G72">
-        <v>2136</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2318,22 +2338,22 @@
         <v>17</v>
       </c>
       <c r="B73">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="C73">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73">
-        <v>588</v>
+        <v>428</v>
       </c>
       <c r="F73">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="G73">
-        <v>2361</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2341,22 +2361,22 @@
         <v>17</v>
       </c>
       <c r="B74">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="E74">
-        <v>421</v>
+        <v>345</v>
       </c>
       <c r="F74">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="G74">
-        <v>2522</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2364,22 +2384,22 @@
         <v>17</v>
       </c>
       <c r="B75">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="C75">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="F75">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G75">
-        <v>2713</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2387,22 +2407,22 @@
         <v>17</v>
       </c>
       <c r="B76">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="C76">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
       </c>
       <c r="E76">
-        <v>428</v>
+        <v>542</v>
       </c>
       <c r="F76">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="G76">
-        <v>2856</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2410,22 +2430,22 @@
         <v>17</v>
       </c>
       <c r="B77">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="C77">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
       </c>
       <c r="E77">
-        <v>507</v>
+        <v>588</v>
       </c>
       <c r="F77">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="G77">
-        <v>3053</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2433,22 +2453,22 @@
         <v>17</v>
       </c>
       <c r="B78">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="C78">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
       </c>
       <c r="E78">
-        <v>526</v>
+        <v>421</v>
       </c>
       <c r="F78">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="G78">
-        <v>3264</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2456,22 +2476,22 @@
         <v>17</v>
       </c>
       <c r="B79">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="C79">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79">
-        <v>556</v>
+        <v>497</v>
       </c>
       <c r="F79">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G79">
-        <v>3453</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2479,22 +2499,22 @@
         <v>17</v>
       </c>
       <c r="B80">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="C80">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
       </c>
       <c r="E80">
-        <v>625</v>
+        <v>428</v>
       </c>
       <c r="F80">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="G80">
-        <v>3664</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2502,22 +2522,22 @@
         <v>17</v>
       </c>
       <c r="B81">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="C81">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
       <c r="E81">
-        <v>415</v>
+        <v>507</v>
       </c>
       <c r="F81">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="G81">
-        <v>3821</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2525,22 +2545,22 @@
         <v>17</v>
       </c>
       <c r="B82">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="C82">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82">
-        <v>233</v>
+        <v>526</v>
       </c>
       <c r="F82">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="G82">
-        <v>3900</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2548,22 +2568,22 @@
         <v>17</v>
       </c>
       <c r="B83">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="C83">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="F83">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G83">
-        <v>4075</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2571,114 +2591,114 @@
         <v>17</v>
       </c>
       <c r="B84">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="C84">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>353</v>
+        <v>625</v>
       </c>
       <c r="F84">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="G84">
-        <v>4189</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B85">
-        <v>1954</v>
+        <v>1925</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="F85">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="G85">
-        <v>131</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B86">
-        <v>1955</v>
+        <v>1926</v>
       </c>
       <c r="C86">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E86">
-        <v>602</v>
+        <v>233</v>
       </c>
       <c r="F86">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="G86">
-        <v>320</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>1956</v>
+        <v>1927</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E87">
-        <v>609</v>
+        <v>490</v>
       </c>
       <c r="F87">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G87">
-        <v>520</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>1957</v>
+        <v>1928</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>615</v>
+        <v>353</v>
       </c>
       <c r="F88">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="G88">
-        <v>718</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2686,22 +2706,22 @@
         <v>20</v>
       </c>
       <c r="B89">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="C89">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
       </c>
       <c r="E89">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2709,22 +2729,22 @@
         <v>20</v>
       </c>
       <c r="B90">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="C90">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="E90">
-        <v>629</v>
+        <v>468</v>
       </c>
       <c r="F90">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="G90">
-        <v>1137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2732,22 +2752,22 @@
         <v>20</v>
       </c>
       <c r="B91">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="C91">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
       </c>
       <c r="E91">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="F91">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G91">
-        <v>1309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2755,22 +2775,22 @@
         <v>20</v>
       </c>
       <c r="B92">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="C92">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
       </c>
       <c r="E92">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F92">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G92">
-        <v>1506</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2778,22 +2798,22 @@
         <v>20</v>
       </c>
       <c r="B93">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="C93">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
         <v>21</v>
       </c>
       <c r="E93">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="F93">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G93">
-        <v>1697</v>
+        <v>718</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2801,22 +2821,22 @@
         <v>20</v>
       </c>
       <c r="B94">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="C94">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
       </c>
       <c r="E94">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="F94">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G94">
-        <v>1898</v>
+        <v>914</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2824,22 +2844,22 @@
         <v>20</v>
       </c>
       <c r="B95">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="C95">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
       </c>
       <c r="E95">
-        <v>570</v>
+        <v>629</v>
       </c>
       <c r="F95">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="G95">
-        <v>2085</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2847,22 +2867,22 @@
         <v>20</v>
       </c>
       <c r="B96">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="C96">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
       </c>
       <c r="E96">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="F96">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G96">
-        <v>2266</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2870,22 +2890,22 @@
         <v>20</v>
       </c>
       <c r="B97">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="C97">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E97">
         <v>603</v>
       </c>
       <c r="F97">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G97">
-        <v>2434</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2893,22 +2913,22 @@
         <v>20</v>
       </c>
       <c r="B98">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="C98">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E98">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F98">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G98">
-        <v>2618</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2916,22 +2936,22 @@
         <v>20</v>
       </c>
       <c r="B99">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="C99">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="F99">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="G99">
-        <v>2792</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2939,22 +2959,22 @@
         <v>20</v>
       </c>
       <c r="B100">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="C100">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E100">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="F100">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G100">
-        <v>2956</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2962,22 +2982,22 @@
         <v>20</v>
       </c>
       <c r="B101">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="C101">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E101">
-        <v>516</v>
+        <v>570</v>
       </c>
       <c r="F101">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="G101">
-        <v>3110</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2985,22 +3005,22 @@
         <v>20</v>
       </c>
       <c r="B102">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="C102">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
         <v>22</v>
       </c>
       <c r="E102">
-        <v>495</v>
+        <v>603</v>
       </c>
       <c r="F102">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G102">
-        <v>3272</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3008,22 +3028,22 @@
         <v>20</v>
       </c>
       <c r="B103">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="C103">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
         <v>22</v>
       </c>
       <c r="E103">
-        <v>449</v>
+        <v>600</v>
       </c>
       <c r="F103">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="G103">
-        <v>3391</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3031,22 +3051,22 @@
         <v>20</v>
       </c>
       <c r="B104">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="C104">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D104" t="s">
         <v>22</v>
       </c>
       <c r="E104">
-        <v>392</v>
+        <v>606</v>
       </c>
       <c r="F104">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="G104">
-        <v>3509</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3054,22 +3074,22 @@
         <v>20</v>
       </c>
       <c r="B105">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="C105">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D105" t="s">
         <v>22</v>
       </c>
       <c r="E105">
-        <v>340</v>
+        <v>547</v>
       </c>
       <c r="F105">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="G105">
-        <v>3600</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3077,22 +3097,22 @@
         <v>20</v>
       </c>
       <c r="B106">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="C106">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E106">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="F106">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="G106">
-        <v>3709</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3100,137 +3120,137 @@
         <v>20</v>
       </c>
       <c r="B107">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="C107">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E107">
-        <v>271</v>
+        <v>495</v>
       </c>
       <c r="F107">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="G107">
-        <v>3771</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B108">
-        <v>1941</v>
+        <v>1972</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E108">
-        <v>47</v>
+        <v>449</v>
       </c>
       <c r="F108">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G108">
-        <v>20</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B109">
-        <v>1942</v>
+        <v>1973</v>
       </c>
       <c r="C109">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E109">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="F109">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="G109">
-        <v>167</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B110">
-        <v>1943</v>
+        <v>1974</v>
       </c>
       <c r="C110">
+        <v>40</v>
+      </c>
+      <c r="D110" t="s">
         <v>22</v>
       </c>
-      <c r="D110" t="s">
-        <v>25</v>
-      </c>
       <c r="E110">
-        <v>617</v>
+        <v>340</v>
       </c>
       <c r="F110">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="G110">
-        <v>387</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B111">
-        <v>1944</v>
+        <v>1975</v>
       </c>
       <c r="C111">
+        <v>41</v>
+      </c>
+      <c r="D111" t="s">
         <v>23</v>
       </c>
-      <c r="D111" t="s">
-        <v>25</v>
-      </c>
       <c r="E111">
-        <v>568</v>
+        <v>465</v>
       </c>
       <c r="F111">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="G111">
-        <v>584</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B112">
-        <v>1945</v>
+        <v>1976</v>
       </c>
       <c r="C112">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G112">
-        <v>584</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3238,22 +3258,22 @@
         <v>24</v>
       </c>
       <c r="B113">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="C113">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
         <v>25</v>
       </c>
       <c r="E113">
-        <v>624</v>
+        <v>47</v>
       </c>
       <c r="F113">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="G113">
-        <v>812</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3261,22 +3281,22 @@
         <v>24</v>
       </c>
       <c r="B114">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="C114">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
         <v>25</v>
       </c>
       <c r="E114">
-        <v>587</v>
+        <v>467</v>
       </c>
       <c r="F114">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="G114">
-        <v>995</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3284,22 +3304,22 @@
         <v>24</v>
       </c>
       <c r="B115">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="C115">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
       </c>
       <c r="E115">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="F115">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G115">
-        <v>1225</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3307,22 +3327,22 @@
         <v>24</v>
       </c>
       <c r="B116">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C116">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
         <v>25</v>
       </c>
       <c r="E116">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="F116">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G116">
-        <v>1432</v>
+        <v>584</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3330,22 +3350,22 @@
         <v>24</v>
       </c>
       <c r="B117">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="C117">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E117">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>1624</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3353,22 +3373,22 @@
         <v>24</v>
       </c>
       <c r="B118">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="C118">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
       </c>
       <c r="E118">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="F118">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="G118">
-        <v>1829</v>
+        <v>812</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3376,22 +3396,22 @@
         <v>24</v>
       </c>
       <c r="B119">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="C119">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
         <v>25</v>
       </c>
       <c r="E119">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="F119">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G119">
-        <v>2023</v>
+        <v>995</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3399,22 +3419,22 @@
         <v>24</v>
       </c>
       <c r="B120">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="C120">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
         <v>25</v>
       </c>
       <c r="E120">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="F120">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G120">
-        <v>2223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3422,22 +3442,22 @@
         <v>24</v>
       </c>
       <c r="B121">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="C121">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D121" t="s">
         <v>25</v>
       </c>
       <c r="E121">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="F121">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="G121">
-        <v>2418</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3445,22 +3465,22 @@
         <v>24</v>
       </c>
       <c r="B122">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="C122">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
         <v>25</v>
       </c>
       <c r="E122">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F122">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G122">
-        <v>2597</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3468,22 +3488,22 @@
         <v>24</v>
       </c>
       <c r="B123">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="C123">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D123" t="s">
         <v>25</v>
       </c>
       <c r="E123">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F123">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G123">
-        <v>2781</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3491,22 +3511,22 @@
         <v>24</v>
       </c>
       <c r="B124">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="C124">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D124" t="s">
         <v>25</v>
       </c>
       <c r="E124">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="F124">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G124">
-        <v>2957</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3514,22 +3534,22 @@
         <v>24</v>
       </c>
       <c r="B125">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="C125">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D125" t="s">
         <v>25</v>
       </c>
       <c r="E125">
-        <v>472</v>
+        <v>593</v>
       </c>
       <c r="F125">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="G125">
-        <v>3116</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3537,22 +3557,22 @@
         <v>24</v>
       </c>
       <c r="B126">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="C126">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
         <v>25</v>
       </c>
       <c r="E126">
-        <v>341</v>
+        <v>591</v>
       </c>
       <c r="F126">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="G126">
-        <v>3203</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3560,22 +3580,22 @@
         <v>24</v>
       </c>
       <c r="B127">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="C127">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
       </c>
       <c r="E127">
-        <v>331</v>
+        <v>562</v>
       </c>
       <c r="F127">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="G127">
-        <v>3294</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3583,22 +3603,22 @@
         <v>24</v>
       </c>
       <c r="B128">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="C128">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D128" t="s">
         <v>25</v>
       </c>
       <c r="E128">
-        <v>372</v>
+        <v>594</v>
       </c>
       <c r="F128">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="G128">
-        <v>3401</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3606,22 +3626,22 @@
         <v>24</v>
       </c>
       <c r="B129">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="C129">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D129" t="s">
         <v>25</v>
       </c>
       <c r="E129">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="F129">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="G129">
-        <v>3544</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3629,137 +3649,137 @@
         <v>24</v>
       </c>
       <c r="B130">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="C130">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D130" t="s">
         <v>25</v>
       </c>
       <c r="E130">
-        <v>337</v>
+        <v>472</v>
       </c>
       <c r="F130">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="G130">
-        <v>3630</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B131">
-        <v>1907</v>
+        <v>1959</v>
       </c>
       <c r="C131">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E131">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B132">
-        <v>1908</v>
+        <v>1960</v>
       </c>
       <c r="C132">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E132">
-        <v>116</v>
+        <v>331</v>
       </c>
       <c r="F132">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G132">
-        <v>29</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B133">
-        <v>1909</v>
+        <v>1961</v>
       </c>
       <c r="C133">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E133">
-        <v>544</v>
+        <v>372</v>
       </c>
       <c r="F133">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="G133">
-        <v>197</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B134">
-        <v>1910</v>
+        <v>1962</v>
       </c>
       <c r="C134">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E134">
-        <v>538</v>
+        <v>433</v>
       </c>
       <c r="F134">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G134">
-        <v>380</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B135">
-        <v>1911</v>
+        <v>1963</v>
       </c>
       <c r="C135">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E135">
-        <v>500</v>
+        <v>337</v>
       </c>
       <c r="F135">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="G135">
-        <v>547</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3767,22 +3787,22 @@
         <v>27</v>
       </c>
       <c r="B136">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="C136">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
         <v>28</v>
       </c>
       <c r="E136">
-        <v>580</v>
+        <v>19</v>
       </c>
       <c r="F136">
-        <v>222</v>
+        <v>3</v>
       </c>
       <c r="G136">
-        <v>769</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3790,22 +3810,22 @@
         <v>27</v>
       </c>
       <c r="B137">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="C137">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>28</v>
       </c>
       <c r="E137">
-        <v>520</v>
+        <v>116</v>
       </c>
       <c r="F137">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="G137">
-        <v>958</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3813,22 +3833,22 @@
         <v>27</v>
       </c>
       <c r="B138">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="C138">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
         <v>28</v>
       </c>
       <c r="E138">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="F138">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G138">
-        <v>1151</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3836,22 +3856,22 @@
         <v>27</v>
       </c>
       <c r="B139">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="C139">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
       </c>
       <c r="E139">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F139">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G139">
-        <v>1327</v>
+        <v>380</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3859,22 +3879,22 @@
         <v>27</v>
       </c>
       <c r="B140">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="C140">
+        <v>23</v>
+      </c>
+      <c r="D140" t="s">
         <v>28</v>
       </c>
-      <c r="D140" t="s">
-        <v>29</v>
-      </c>
       <c r="E140">
-        <v>546</v>
+        <v>500</v>
       </c>
       <c r="F140">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="G140">
-        <v>1538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3882,22 +3902,22 @@
         <v>27</v>
       </c>
       <c r="B141">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="C141">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="F141">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="G141">
-        <v>1722</v>
+        <v>769</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3905,22 +3925,22 @@
         <v>27</v>
       </c>
       <c r="B142">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="C142">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E142">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="F142">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="G142">
-        <v>1872</v>
+        <v>958</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3928,22 +3948,22 @@
         <v>27</v>
       </c>
       <c r="B143">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="C143">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>494</v>
+        <v>571</v>
       </c>
       <c r="F143">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="G143">
-        <v>2018</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3951,22 +3971,22 @@
         <v>27</v>
       </c>
       <c r="B144">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="C144">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F144">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="G144">
-        <v>2232</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3974,22 +3994,22 @@
         <v>27</v>
       </c>
       <c r="B145">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="C145">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D145" t="s">
         <v>29</v>
       </c>
       <c r="E145">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="F145">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="G145">
-        <v>2415</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3997,22 +4017,22 @@
         <v>27</v>
       </c>
       <c r="B146">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="C146">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D146" t="s">
         <v>29</v>
       </c>
       <c r="E146">
-        <v>426</v>
+        <v>523</v>
       </c>
       <c r="F146">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="G146">
-        <v>2576</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4020,22 +4040,22 @@
         <v>27</v>
       </c>
       <c r="B147">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="C147">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
       </c>
       <c r="E147">
-        <v>574</v>
+        <v>471</v>
       </c>
       <c r="F147">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="G147">
-        <v>2794</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4043,22 +4063,22 @@
         <v>27</v>
       </c>
       <c r="B148">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="C148">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D148" t="s">
         <v>29</v>
       </c>
       <c r="E148">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F148">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G148">
-        <v>2961</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4066,22 +4086,22 @@
         <v>27</v>
       </c>
       <c r="B149">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="C149">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D149" t="s">
         <v>29</v>
       </c>
       <c r="E149">
-        <v>429</v>
+        <v>552</v>
       </c>
       <c r="F149">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="G149">
-        <v>3128</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4089,22 +4109,22 @@
         <v>27</v>
       </c>
       <c r="B150">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="C150">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D150" t="s">
         <v>29</v>
       </c>
       <c r="E150">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="F150">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G150">
-        <v>3292</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4112,22 +4132,22 @@
         <v>27</v>
       </c>
       <c r="B151">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="C151">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E151">
-        <v>523</v>
+        <v>426</v>
       </c>
       <c r="F151">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G151">
-        <v>3463</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4135,137 +4155,137 @@
         <v>27</v>
       </c>
       <c r="B152">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="C152">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E152">
-        <v>191</v>
+        <v>574</v>
       </c>
       <c r="F152">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="G152">
-        <v>3514</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B153">
-        <v>1871</v>
+        <v>1924</v>
       </c>
       <c r="C153">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E153">
-        <v>120</v>
+        <v>486</v>
       </c>
       <c r="F153">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G153">
-        <v>39</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B154">
-        <v>1872</v>
+        <v>1925</v>
       </c>
       <c r="C154">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>217</v>
+        <v>429</v>
       </c>
       <c r="F154">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="G154">
-        <v>129</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B155">
-        <v>1873</v>
+        <v>1926</v>
       </c>
       <c r="C155">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E155">
-        <v>254</v>
+        <v>539</v>
       </c>
       <c r="F155">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="G155">
-        <v>230</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B156">
-        <v>1874</v>
+        <v>1927</v>
       </c>
       <c r="C156">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E156">
-        <v>260</v>
+        <v>523</v>
       </c>
       <c r="F156">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="G156">
-        <v>317</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B157">
-        <v>1875</v>
+        <v>1928</v>
       </c>
       <c r="C157">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E157">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="F157">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="G157">
-        <v>423</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4273,22 +4293,22 @@
         <v>31</v>
       </c>
       <c r="B158">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="C158">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E158">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="F158">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="G158">
-        <v>533</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4296,22 +4316,22 @@
         <v>31</v>
       </c>
       <c r="B159">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="C159">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E159">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="F159">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G159">
-        <v>619</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4319,22 +4339,22 @@
         <v>31</v>
       </c>
       <c r="B160">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="C160">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E160">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F160">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G160">
-        <v>708</v>
+        <v>230</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4342,22 +4362,22 @@
         <v>31</v>
       </c>
       <c r="B161">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="C161">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E161">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="F161">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G161">
-        <v>780</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4365,22 +4385,22 @@
         <v>31</v>
       </c>
       <c r="B162">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="C162">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E162">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="F162">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G162">
-        <v>900</v>
+        <v>423</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4388,22 +4408,22 @@
         <v>31</v>
       </c>
       <c r="B163">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="C163">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
         <v>34</v>
       </c>
       <c r="E163">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="F163">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G163">
-        <v>1037</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4411,22 +4431,22 @@
         <v>31</v>
       </c>
       <c r="B164">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="C164">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D164" t="s">
         <v>34</v>
       </c>
       <c r="E164">
-        <v>348</v>
+        <v>255</v>
       </c>
       <c r="F164">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="G164">
-        <v>1163</v>
+        <v>619</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4434,22 +4454,22 @@
         <v>31</v>
       </c>
       <c r="B165">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="C165">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D165" t="s">
         <v>34</v>
       </c>
       <c r="E165">
-        <v>413</v>
+        <v>261</v>
       </c>
       <c r="F165">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="G165">
-        <v>1290</v>
+        <v>708</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4457,22 +4477,22 @@
         <v>31</v>
       </c>
       <c r="B166">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="C166">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D166" t="s">
         <v>34</v>
       </c>
       <c r="E166">
-        <v>475</v>
+        <v>227</v>
       </c>
       <c r="F166">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="G166">
-        <v>1449</v>
+        <v>780</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4480,22 +4500,22 @@
         <v>31</v>
       </c>
       <c r="B167">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="C167">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D167" t="s">
         <v>34</v>
       </c>
       <c r="E167">
-        <v>464</v>
+        <v>356</v>
       </c>
       <c r="F167">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="G167">
-        <v>1593</v>
+        <v>900</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4503,22 +4523,22 @@
         <v>31</v>
       </c>
       <c r="B168">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="C168">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D168" t="s">
         <v>34</v>
       </c>
       <c r="E168">
-        <v>504</v>
+        <v>343</v>
       </c>
       <c r="F168">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="G168">
-        <v>1780</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4526,22 +4546,22 @@
         <v>31</v>
       </c>
       <c r="B169">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="C169">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D169" t="s">
         <v>34</v>
       </c>
       <c r="E169">
-        <v>472</v>
+        <v>348</v>
       </c>
       <c r="F169">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="G169">
-        <v>1944</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4549,22 +4569,22 @@
         <v>31</v>
       </c>
       <c r="B170">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="C170">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D170" t="s">
         <v>34</v>
       </c>
       <c r="E170">
-        <v>515</v>
+        <v>413</v>
       </c>
       <c r="F170">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="G170">
-        <v>2121</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4572,22 +4592,22 @@
         <v>31</v>
       </c>
       <c r="B171">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="C171">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D171" t="s">
         <v>34</v>
       </c>
       <c r="E171">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="F171">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G171">
-        <v>2298</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4595,22 +4615,22 @@
         <v>31</v>
       </c>
       <c r="B172">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="C172">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D172" t="s">
         <v>34</v>
       </c>
       <c r="E172">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="F172">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G172">
-        <v>2455</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4618,22 +4638,22 @@
         <v>31</v>
       </c>
       <c r="B173">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C173">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D173" t="s">
         <v>34</v>
       </c>
       <c r="E173">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="F173">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="G173">
-        <v>2612</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4641,22 +4661,22 @@
         <v>31</v>
       </c>
       <c r="B174">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="C174">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D174" t="s">
         <v>34</v>
       </c>
       <c r="E174">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="F174">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G174">
-        <v>2764</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4664,22 +4684,22 @@
         <v>31</v>
       </c>
       <c r="B175">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="C175">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D175" t="s">
         <v>34</v>
       </c>
       <c r="E175">
-        <v>398</v>
+        <v>515</v>
       </c>
       <c r="F175">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="G175">
-        <v>2889</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4687,22 +4707,22 @@
         <v>31</v>
       </c>
       <c r="B176">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="C176">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D176" t="s">
         <v>34</v>
       </c>
       <c r="E176">
-        <v>343</v>
+        <v>518</v>
       </c>
       <c r="F176">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="G176">
-        <v>3022</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4710,22 +4730,22 @@
         <v>31</v>
       </c>
       <c r="B177">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="C177">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D177" t="s">
         <v>34</v>
       </c>
       <c r="E177">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="F177">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G177">
-        <v>3181</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4733,22 +4753,22 @@
         <v>31</v>
       </c>
       <c r="B178">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="C178">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D178" t="s">
         <v>34</v>
       </c>
       <c r="E178">
-        <v>402</v>
+        <v>540</v>
       </c>
       <c r="F178">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G178">
-        <v>3314</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4756,137 +4776,137 @@
         <v>31</v>
       </c>
       <c r="B179">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="C179">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D179" t="s">
         <v>34</v>
       </c>
       <c r="E179">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="F179">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="G179">
-        <v>3435</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B180">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="C180">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D180" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E180">
-        <v>242</v>
+        <v>398</v>
       </c>
       <c r="F180">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="G180">
-        <v>81</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B181">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="C181">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D181" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E181">
-        <v>588</v>
+        <v>343</v>
       </c>
       <c r="F181">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="G181">
-        <v>257</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B182">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C182">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D182" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E182">
-        <v>575</v>
+        <v>474</v>
       </c>
       <c r="F182">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="G182">
-        <v>453</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B183">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="C183">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D183" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E183">
-        <v>527</v>
+        <v>402</v>
       </c>
       <c r="F183">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G183">
-        <v>654</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B184">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="C184">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D184" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E184">
-        <v>549</v>
+        <v>424</v>
       </c>
       <c r="F184">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="G184">
-        <v>848</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4894,22 +4914,22 @@
         <v>35</v>
       </c>
       <c r="B185">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="C185">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E185">
-        <v>534</v>
+        <v>242</v>
       </c>
       <c r="F185">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="G185">
-        <v>1024</v>
+        <v>81</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4917,22 +4937,22 @@
         <v>35</v>
       </c>
       <c r="B186">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="C186">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E186">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="F186">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G186">
-        <v>1206</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4940,22 +4960,22 @@
         <v>35</v>
       </c>
       <c r="B187">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="C187">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E187">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="F187">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="G187">
-        <v>1377</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4963,22 +4983,22 @@
         <v>35</v>
       </c>
       <c r="B188">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="C188">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D188" t="s">
         <v>37</v>
       </c>
       <c r="E188">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="F188">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G188">
-        <v>1576</v>
+        <v>654</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4986,22 +5006,22 @@
         <v>35</v>
       </c>
       <c r="B189">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="C189">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D189" t="s">
         <v>37</v>
       </c>
       <c r="E189">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="F189">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G189">
-        <v>1751</v>
+        <v>848</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5009,22 +5029,22 @@
         <v>35</v>
       </c>
       <c r="B190">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="C190">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D190" t="s">
         <v>37</v>
       </c>
       <c r="E190">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="F190">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G190">
-        <v>1931</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5032,22 +5052,22 @@
         <v>35</v>
       </c>
       <c r="B191">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="C191">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D191" t="s">
         <v>37</v>
       </c>
       <c r="E191">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="F191">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="G191">
-        <v>2132</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5055,22 +5075,22 @@
         <v>35</v>
       </c>
       <c r="B192">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="C192">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D192" t="s">
         <v>37</v>
       </c>
       <c r="E192">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F192">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G192">
-        <v>2300</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5078,22 +5098,22 @@
         <v>35</v>
       </c>
       <c r="B193">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="C193">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D193" t="s">
         <v>37</v>
       </c>
       <c r="E193">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F193">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G193">
-        <v>2478</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5101,22 +5121,22 @@
         <v>35</v>
       </c>
       <c r="B194">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="C194">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D194" t="s">
         <v>37</v>
       </c>
       <c r="E194">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="F194">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G194">
-        <v>2636</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5124,22 +5144,22 @@
         <v>35</v>
       </c>
       <c r="B195">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="C195">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D195" t="s">
         <v>37</v>
       </c>
       <c r="E195">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="F195">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G195">
-        <v>2817</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5147,22 +5167,22 @@
         <v>35</v>
       </c>
       <c r="B196">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="C196">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D196" t="s">
         <v>37</v>
       </c>
       <c r="E196">
-        <v>413</v>
+        <v>568</v>
       </c>
       <c r="F196">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="G196">
-        <v>2941</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5170,22 +5190,22 @@
         <v>35</v>
       </c>
       <c r="B197">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="C197">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D197" t="s">
         <v>37</v>
       </c>
       <c r="E197">
-        <v>552</v>
+        <v>495</v>
       </c>
       <c r="F197">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="G197">
-        <v>3080</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5193,22 +5213,22 @@
         <v>35</v>
       </c>
       <c r="B198">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="C198">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D198" t="s">
         <v>37</v>
       </c>
       <c r="E198">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F198">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G198">
-        <v>3235</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5216,22 +5236,22 @@
         <v>35</v>
       </c>
       <c r="B199">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="C199">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D199" t="s">
         <v>37</v>
       </c>
       <c r="E199">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="F199">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="G199">
-        <v>3359</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5239,137 +5259,137 @@
         <v>35</v>
       </c>
       <c r="B200">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="C200">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D200" t="s">
         <v>37</v>
       </c>
       <c r="E200">
-        <v>230</v>
+        <v>558</v>
       </c>
       <c r="F200">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="G200">
-        <v>3420</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>38</v>
-      </c>
-      <c r="B201" s="10">
-        <v>1961</v>
-      </c>
-      <c r="C201" s="10">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="B201">
+        <v>1913</v>
+      </c>
+      <c r="C201">
+        <v>39</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
-      </c>
-      <c r="E201" s="10">
-        <v>583</v>
-      </c>
-      <c r="F201" s="10">
-        <v>155</v>
+        <v>37</v>
+      </c>
+      <c r="E201">
+        <v>413</v>
+      </c>
+      <c r="F201">
+        <v>124</v>
       </c>
       <c r="G201">
-        <v>155</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>38</v>
-      </c>
-      <c r="B202" s="10">
-        <v>1962</v>
-      </c>
-      <c r="C202" s="10">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="B202">
+        <v>1914</v>
+      </c>
+      <c r="C202">
+        <v>40</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
-      </c>
-      <c r="E202" s="10">
-        <v>646</v>
-      </c>
-      <c r="F202" s="10">
-        <v>191</v>
+        <v>37</v>
+      </c>
+      <c r="E202">
+        <v>552</v>
+      </c>
+      <c r="F202">
+        <v>139</v>
       </c>
       <c r="G202">
-        <v>346</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>38</v>
-      </c>
-      <c r="B203" s="10">
-        <v>1963</v>
-      </c>
-      <c r="C203" s="10">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="B203">
+        <v>1915</v>
+      </c>
+      <c r="C203">
+        <v>41</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
-      </c>
-      <c r="E203" s="10">
-        <v>570</v>
-      </c>
-      <c r="F203" s="11">
-        <v>183</v>
+        <v>37</v>
+      </c>
+      <c r="E203">
+        <v>566</v>
+      </c>
+      <c r="F203">
+        <v>155</v>
       </c>
       <c r="G203">
-        <v>529</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>38</v>
-      </c>
-      <c r="B204" s="10">
-        <v>1964</v>
-      </c>
-      <c r="C204" s="10">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="B204">
+        <v>1916</v>
+      </c>
+      <c r="C204">
+        <v>42</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="10">
-        <v>567</v>
-      </c>
-      <c r="F204" s="10">
-        <v>164</v>
+        <v>37</v>
+      </c>
+      <c r="E204">
+        <v>432</v>
+      </c>
+      <c r="F204">
+        <v>124</v>
       </c>
       <c r="G204">
-        <v>693</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>38</v>
-      </c>
-      <c r="B205" s="10">
-        <v>1965</v>
-      </c>
-      <c r="C205" s="10">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="B205">
+        <v>1917</v>
+      </c>
+      <c r="C205">
+        <v>43</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
-      </c>
-      <c r="E205" s="10">
-        <v>494</v>
-      </c>
-      <c r="F205" s="10">
-        <v>154</v>
+        <v>37</v>
+      </c>
+      <c r="E205">
+        <v>230</v>
+      </c>
+      <c r="F205">
+        <v>61</v>
       </c>
       <c r="G205">
-        <v>847</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5377,22 +5397,22 @@
         <v>38</v>
       </c>
       <c r="B206" s="10">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="C206" s="10">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D206" t="s">
         <v>28</v>
       </c>
       <c r="E206" s="10">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="F206" s="10">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G206">
-        <v>1012</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5400,22 +5420,22 @@
         <v>38</v>
       </c>
       <c r="B207" s="10">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="C207" s="10">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D207" t="s">
         <v>28</v>
       </c>
       <c r="E207" s="10">
-        <v>579</v>
-      </c>
-      <c r="F207" s="11">
-        <v>189</v>
+        <v>646</v>
+      </c>
+      <c r="F207" s="10">
+        <v>191</v>
       </c>
       <c r="G207">
-        <v>1201</v>
+        <v>346</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5423,22 +5443,22 @@
         <v>38</v>
       </c>
       <c r="B208" s="10">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="C208" s="10">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
         <v>28</v>
       </c>
       <c r="E208" s="10">
-        <v>539</v>
-      </c>
-      <c r="F208" s="10">
-        <v>162</v>
+        <v>570</v>
+      </c>
+      <c r="F208" s="11">
+        <v>183</v>
       </c>
       <c r="G208">
-        <v>1363</v>
+        <v>529</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5446,22 +5466,22 @@
         <v>38</v>
       </c>
       <c r="B209" s="10">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="C209" s="10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D209" t="s">
         <v>28</v>
       </c>
       <c r="E209" s="10">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="F209" s="10">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G209">
-        <v>1517</v>
+        <v>693</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5469,22 +5489,22 @@
         <v>38</v>
       </c>
       <c r="B210" s="10">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="C210" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D210" t="s">
         <v>28</v>
       </c>
       <c r="E210" s="10">
-        <v>566</v>
+        <v>494</v>
       </c>
       <c r="F210" s="10">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="G210">
-        <v>1703</v>
+        <v>847</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5492,22 +5512,22 @@
         <v>38</v>
       </c>
       <c r="B211" s="10">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="C211" s="10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D211" t="s">
         <v>28</v>
       </c>
       <c r="E211" s="10">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="F211" s="10">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="G211">
-        <v>1832</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5515,22 +5535,22 @@
         <v>38</v>
       </c>
       <c r="B212" s="10">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="C212" s="10">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D212" t="s">
         <v>28</v>
       </c>
       <c r="E212" s="10">
-        <v>455</v>
-      </c>
-      <c r="F212" s="10">
-        <v>120</v>
+        <v>579</v>
+      </c>
+      <c r="F212" s="11">
+        <v>189</v>
       </c>
       <c r="G212">
-        <v>1952</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5538,22 +5558,22 @@
         <v>38</v>
       </c>
       <c r="B213" s="10">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="C213" s="10">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D213" t="s">
         <v>28</v>
       </c>
       <c r="E213" s="10">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F213" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G213">
-        <v>2112</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5561,22 +5581,22 @@
         <v>38</v>
       </c>
       <c r="B214" s="10">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="C214" s="10">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D214" t="s">
         <v>28</v>
       </c>
       <c r="E214" s="10">
-        <v>515</v>
+        <v>603</v>
       </c>
       <c r="F214" s="10">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G214">
-        <v>2267</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5584,22 +5604,22 @@
         <v>38</v>
       </c>
       <c r="B215" s="10">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="C215" s="10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D215" t="s">
         <v>28</v>
       </c>
       <c r="E215" s="10">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="F215" s="10">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="G215">
-        <v>2413</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5607,22 +5627,22 @@
         <v>38</v>
       </c>
       <c r="B216" s="10">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="C216" s="10">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D216" t="s">
         <v>28</v>
       </c>
       <c r="E216" s="10">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="F216" s="10">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G216">
-        <v>2559</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5630,22 +5650,22 @@
         <v>38</v>
       </c>
       <c r="B217" s="10">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="C217" s="10">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D217" t="s">
         <v>28</v>
       </c>
       <c r="E217" s="10">
-        <v>558</v>
+        <v>455</v>
       </c>
       <c r="F217" s="10">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="G217">
-        <v>2724</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5653,22 +5673,22 @@
         <v>38</v>
       </c>
       <c r="B218" s="10">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="C218" s="10">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
         <v>28</v>
       </c>
       <c r="E218" s="10">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="F218" s="10">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G218">
-        <v>2869</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5676,22 +5696,22 @@
         <v>38</v>
       </c>
       <c r="B219" s="10">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="C219" s="10">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D219" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="10">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F219" s="10">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G219">
-        <v>3009</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5699,22 +5719,22 @@
         <v>38</v>
       </c>
       <c r="B220" s="10">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="C220" s="10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D220" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="10">
-        <v>364</v>
+        <v>543</v>
       </c>
       <c r="F220" s="10">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="G220">
-        <v>3109</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5722,22 +5742,22 @@
         <v>38</v>
       </c>
       <c r="B221" s="10">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="C221" s="10">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="10">
-        <v>338</v>
+        <v>546</v>
       </c>
       <c r="F221" s="10">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="G221">
-        <v>3192</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5745,22 +5765,22 @@
         <v>38</v>
       </c>
       <c r="B222" s="10">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="C222" s="10">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D222" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="10">
-        <v>459</v>
+        <v>558</v>
       </c>
       <c r="F222" s="10">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="G222">
-        <v>3318</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5768,137 +5788,137 @@
         <v>38</v>
       </c>
       <c r="B223" s="10">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="C223" s="10">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D223" t="s">
         <v>28</v>
       </c>
       <c r="E223" s="10">
-        <v>380</v>
+        <v>523</v>
       </c>
       <c r="F223" s="10">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="G223">
-        <v>3419</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
+        <v>38</v>
+      </c>
+      <c r="B224" s="10">
+        <v>1979</v>
+      </c>
+      <c r="C224" s="10">
         <v>39</v>
       </c>
-      <c r="B224">
-        <v>1978</v>
-      </c>
-      <c r="C224">
-        <v>21</v>
-      </c>
       <c r="D224" t="s">
-        <v>23</v>
-      </c>
-      <c r="E224">
-        <v>521</v>
-      </c>
-      <c r="F224">
-        <v>142</v>
+        <v>28</v>
+      </c>
+      <c r="E224" s="10">
+        <v>518</v>
+      </c>
+      <c r="F224" s="10">
+        <v>140</v>
       </c>
       <c r="G224">
-        <v>142</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>39</v>
-      </c>
-      <c r="B225">
-        <v>1979</v>
-      </c>
-      <c r="C225">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B225" s="10">
+        <v>1980</v>
+      </c>
+      <c r="C225" s="10">
+        <v>40</v>
       </c>
       <c r="D225" t="s">
-        <v>23</v>
-      </c>
-      <c r="E225">
-        <v>584</v>
-      </c>
-      <c r="F225">
-        <v>188</v>
+        <v>28</v>
+      </c>
+      <c r="E225" s="10">
+        <v>364</v>
+      </c>
+      <c r="F225" s="10">
+        <v>100</v>
       </c>
       <c r="G225">
-        <v>330</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>39</v>
-      </c>
-      <c r="B226">
-        <v>1980</v>
-      </c>
-      <c r="C226">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="B226" s="10">
+        <v>1981</v>
+      </c>
+      <c r="C226" s="10">
+        <v>41</v>
       </c>
       <c r="D226" t="s">
-        <v>23</v>
-      </c>
-      <c r="E226">
-        <v>450</v>
-      </c>
-      <c r="F226">
-        <v>137</v>
+        <v>28</v>
+      </c>
+      <c r="E226" s="10">
+        <v>338</v>
+      </c>
+      <c r="F226" s="10">
+        <v>83</v>
       </c>
       <c r="G226">
-        <v>467</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>39</v>
-      </c>
-      <c r="B227">
-        <v>1981</v>
-      </c>
-      <c r="C227">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="B227" s="10">
+        <v>1982</v>
+      </c>
+      <c r="C227" s="10">
+        <v>42</v>
       </c>
       <c r="D227" t="s">
-        <v>23</v>
-      </c>
-      <c r="E227">
-        <v>251</v>
-      </c>
-      <c r="F227">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="E227" s="10">
+        <v>459</v>
+      </c>
+      <c r="F227" s="10">
+        <v>126</v>
       </c>
       <c r="G227">
-        <v>534</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>39</v>
-      </c>
-      <c r="B228">
-        <v>1982</v>
-      </c>
-      <c r="C228">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="B228" s="10">
+        <v>1983</v>
+      </c>
+      <c r="C228" s="10">
+        <v>43</v>
       </c>
       <c r="D228" t="s">
-        <v>23</v>
-      </c>
-      <c r="E228">
-        <v>666</v>
-      </c>
-      <c r="F228">
-        <v>201</v>
+        <v>28</v>
+      </c>
+      <c r="E228" s="10">
+        <v>380</v>
+      </c>
+      <c r="F228" s="10">
+        <v>101</v>
       </c>
       <c r="G228">
-        <v>735</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5906,22 +5926,22 @@
         <v>39</v>
       </c>
       <c r="B229">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="C229">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
         <v>23</v>
       </c>
       <c r="E229">
-        <v>608</v>
+        <v>521</v>
       </c>
       <c r="F229">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="G229">
-        <v>899</v>
+        <v>142</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5929,22 +5949,22 @@
         <v>39</v>
       </c>
       <c r="B230">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="C230">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
         <v>23</v>
       </c>
       <c r="E230">
-        <v>46</v>
+        <v>584</v>
       </c>
       <c r="F230">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G230">
-        <v>909</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5952,22 +5972,22 @@
         <v>39</v>
       </c>
       <c r="B231">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="C231">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D231" t="s">
         <v>23</v>
       </c>
       <c r="E231">
-        <v>576</v>
+        <v>450</v>
       </c>
       <c r="F231">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="G231">
-        <v>1080</v>
+        <v>467</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5975,22 +5995,22 @@
         <v>39</v>
       </c>
       <c r="B232">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="C232">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
         <v>23</v>
       </c>
       <c r="E232">
-        <v>437</v>
+        <v>251</v>
       </c>
       <c r="F232">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="G232">
-        <v>1203</v>
+        <v>534</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5998,22 +6018,22 @@
         <v>39</v>
       </c>
       <c r="B233">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="C233">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D233" t="s">
         <v>23</v>
       </c>
       <c r="E233">
-        <v>465</v>
+        <v>666</v>
       </c>
       <c r="F233">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="G233">
-        <v>1367</v>
+        <v>735</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6021,22 +6041,22 @@
         <v>39</v>
       </c>
       <c r="B234">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="C234">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D234" t="s">
         <v>23</v>
       </c>
       <c r="E234">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F234">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="G234">
-        <v>1557</v>
+        <v>899</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6044,22 +6064,22 @@
         <v>39</v>
       </c>
       <c r="B235">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="C235">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D235" t="s">
         <v>23</v>
       </c>
       <c r="E235">
-        <v>615</v>
+        <v>46</v>
       </c>
       <c r="F235">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G235">
-        <v>1751</v>
+        <v>909</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6067,22 +6087,22 @@
         <v>39</v>
       </c>
       <c r="B236">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="C236">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D236" t="s">
         <v>23</v>
       </c>
       <c r="E236">
-        <v>418</v>
+        <v>576</v>
       </c>
       <c r="F236">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="G236">
-        <v>1870</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6090,22 +6110,22 @@
         <v>39</v>
       </c>
       <c r="B237">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="C237">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D237" t="s">
         <v>23</v>
       </c>
       <c r="E237">
-        <v>665</v>
+        <v>437</v>
       </c>
       <c r="F237">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="G237">
-        <v>2086</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6113,22 +6133,22 @@
         <v>39</v>
       </c>
       <c r="B238">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="C238">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D238" t="s">
         <v>23</v>
       </c>
       <c r="E238">
-        <v>609</v>
+        <v>465</v>
       </c>
       <c r="F238">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G238">
-        <v>2281</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6136,22 +6156,22 @@
         <v>39</v>
       </c>
       <c r="B239">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="C239">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D239" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E239">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="F239">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G239">
-        <v>2492</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6159,22 +6179,22 @@
         <v>39</v>
       </c>
       <c r="B240">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="C240">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D240" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E240">
-        <v>454</v>
+        <v>615</v>
       </c>
       <c r="F240">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="G240">
-        <v>2647</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6182,22 +6202,22 @@
         <v>39</v>
       </c>
       <c r="B241">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="C241">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D241" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E241">
-        <v>525</v>
+        <v>418</v>
       </c>
       <c r="F241">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G241">
-        <v>2789</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6205,22 +6225,22 @@
         <v>39</v>
       </c>
       <c r="B242">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="C242">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D242" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E242">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="F242">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G242">
-        <v>3014</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6228,22 +6248,22 @@
         <v>39</v>
       </c>
       <c r="B243">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C243">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D243" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E243">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="F243">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="G243">
-        <v>3178</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6251,137 +6271,137 @@
         <v>39</v>
       </c>
       <c r="B244">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="C244">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E244">
-        <v>502</v>
+        <v>636</v>
       </c>
       <c r="F244">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="G244">
-        <v>3319</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B245">
-        <v>1906</v>
+        <v>1994</v>
       </c>
       <c r="C245">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D245" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E245">
-        <v>15</v>
+        <v>454</v>
       </c>
       <c r="F245">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="G245">
-        <v>3</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B246">
-        <v>1907</v>
+        <v>1995</v>
       </c>
       <c r="C246">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D246" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E246">
-        <v>23</v>
+        <v>525</v>
       </c>
       <c r="F246">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="G246">
-        <v>11</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B247">
-        <v>1908</v>
+        <v>1996</v>
       </c>
       <c r="C247">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D247" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E247">
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="F247">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="G247">
-        <v>101</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B248">
-        <v>1909</v>
+        <v>1997</v>
       </c>
       <c r="C248">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D248" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E248">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="F248">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="G248">
-        <v>299</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B249">
-        <v>1910</v>
+        <v>1998</v>
       </c>
       <c r="C249">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D249" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E249">
-        <v>581</v>
+        <v>502</v>
       </c>
       <c r="F249">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="G249">
-        <v>487</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6389,22 +6409,22 @@
         <v>42</v>
       </c>
       <c r="B250">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="C250">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D250" t="s">
         <v>19</v>
       </c>
       <c r="E250">
-        <v>493</v>
+        <v>15</v>
       </c>
       <c r="F250">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="G250">
-        <v>667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6412,22 +6432,22 @@
         <v>42</v>
       </c>
       <c r="B251">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="C251">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D251" t="s">
         <v>19</v>
       </c>
       <c r="E251">
-        <v>543</v>
+        <v>23</v>
       </c>
       <c r="F251">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="G251">
-        <v>856</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6435,22 +6455,22 @@
         <v>42</v>
       </c>
       <c r="B252">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="C252">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
         <v>19</v>
       </c>
       <c r="E252">
-        <v>534</v>
+        <v>330</v>
       </c>
       <c r="F252">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="G252">
-        <v>1040</v>
+        <v>101</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6458,22 +6478,22 @@
         <v>42</v>
       </c>
       <c r="B253">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="C253">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D253" t="s">
         <v>19</v>
       </c>
       <c r="E253">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="F253">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G253">
-        <v>1221</v>
+        <v>299</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6481,22 +6501,22 @@
         <v>42</v>
       </c>
       <c r="B254">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="C254">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D254" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E254">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="F254">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G254">
-        <v>1394</v>
+        <v>487</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6504,22 +6524,22 @@
         <v>42</v>
       </c>
       <c r="B255">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="C255">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D255" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E255">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="F255">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="G255">
-        <v>1562</v>
+        <v>667</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6527,22 +6547,22 @@
         <v>42</v>
       </c>
       <c r="B256">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="C256">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D256" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E256">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="F256">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="G256">
-        <v>1725</v>
+        <v>856</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6550,22 +6570,22 @@
         <v>42</v>
       </c>
       <c r="B257">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="C257">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E257">
-        <v>330</v>
+        <v>534</v>
       </c>
       <c r="F257">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="G257">
-        <v>1816</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6573,22 +6593,22 @@
         <v>42</v>
       </c>
       <c r="B258">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="C258">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D258" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E258">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="F258">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G258">
-        <v>1981</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6596,22 +6616,22 @@
         <v>42</v>
       </c>
       <c r="B259">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="C259">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D259" t="s">
         <v>43</v>
       </c>
       <c r="E259">
-        <v>602</v>
+        <v>521</v>
       </c>
       <c r="F259">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="G259">
-        <v>2205</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6619,22 +6639,22 @@
         <v>42</v>
       </c>
       <c r="B260">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="C260">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D260" t="s">
         <v>43</v>
       </c>
       <c r="E260">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="F260">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G260">
-        <v>2382</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6642,22 +6662,22 @@
         <v>42</v>
       </c>
       <c r="B261">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="C261">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D261" t="s">
         <v>43</v>
       </c>
       <c r="E261">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="F261">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="G261">
-        <v>2576</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6665,22 +6685,22 @@
         <v>42</v>
       </c>
       <c r="B262">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="C262">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D262" t="s">
         <v>43</v>
       </c>
       <c r="E262">
-        <v>505</v>
+        <v>330</v>
       </c>
       <c r="F262">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="G262">
-        <v>2758</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6688,22 +6708,22 @@
         <v>42</v>
       </c>
       <c r="B263">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="C263">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D263" t="s">
         <v>43</v>
       </c>
       <c r="E263">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="F263">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="G263">
-        <v>2952</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6711,22 +6731,22 @@
         <v>42</v>
       </c>
       <c r="B264">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="C264">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D264" t="s">
         <v>43</v>
       </c>
       <c r="E264">
-        <v>425</v>
+        <v>602</v>
       </c>
       <c r="F264">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="G264">
-        <v>3099</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6734,22 +6754,22 @@
         <v>42</v>
       </c>
       <c r="B265">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="C265">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D265" t="s">
         <v>43</v>
       </c>
       <c r="E265">
-        <v>375</v>
+        <v>526</v>
       </c>
       <c r="F265">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="G265">
-        <v>3228</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6757,22 +6777,22 @@
         <v>42</v>
       </c>
       <c r="B266">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="C266">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D266" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E266">
-        <v>226</v>
+        <v>598</v>
       </c>
       <c r="F266">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="G266">
-        <v>3304</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6780,22 +6800,22 @@
         <v>42</v>
       </c>
       <c r="B267">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="C267">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D267" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E267">
-        <v>33</v>
+        <v>505</v>
       </c>
       <c r="F267">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G267">
-        <v>3314</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6803,22 +6823,22 @@
         <v>42</v>
       </c>
       <c r="B268">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="C268">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D268" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E268">
-        <v>7</v>
+        <v>556</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="G268">
-        <v>3314</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6826,137 +6846,137 @@
         <v>42</v>
       </c>
       <c r="B269">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="C269">
+        <v>38</v>
+      </c>
+      <c r="D269" t="s">
         <v>43</v>
       </c>
-      <c r="D269" t="s">
-        <v>19</v>
-      </c>
       <c r="E269">
-        <v>2</v>
+        <v>425</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="G269">
-        <v>3315</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B270">
-        <v>1995</v>
+        <v>1926</v>
       </c>
       <c r="C270">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D270" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E270">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="F270">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="G270">
-        <v>12</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B271">
-        <v>1996</v>
+        <v>1927</v>
       </c>
       <c r="C271">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D271" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E271">
-        <v>582</v>
+        <v>226</v>
       </c>
       <c r="F271">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="G271">
-        <v>195</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B272">
-        <v>1997</v>
+        <v>1928</v>
       </c>
       <c r="C272">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D272" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E272">
-        <v>654</v>
+        <v>33</v>
       </c>
       <c r="F272">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="G272">
-        <v>385</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B273">
-        <v>1998</v>
+        <v>1929</v>
       </c>
       <c r="C273">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D273" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E273">
-        <v>626</v>
+        <v>7</v>
       </c>
       <c r="F273">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="G273">
-        <v>588</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B274">
-        <v>1999</v>
+        <v>1930</v>
       </c>
       <c r="C274">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D274" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E274">
-        <v>627</v>
+        <v>2</v>
       </c>
       <c r="F274">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="G274">
-        <v>807</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6964,22 +6984,22 @@
         <v>44</v>
       </c>
       <c r="B275">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="C275">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D275" t="s">
         <v>4</v>
       </c>
       <c r="E275">
-        <v>593</v>
+        <v>48</v>
       </c>
       <c r="F275">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="G275">
-        <v>1008</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6987,22 +7007,22 @@
         <v>44</v>
       </c>
       <c r="B276">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="C276">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D276" t="s">
         <v>4</v>
       </c>
       <c r="E276">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="F276">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G276">
-        <v>1199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7010,22 +7030,22 @@
         <v>44</v>
       </c>
       <c r="B277">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="C277">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D277" t="s">
         <v>4</v>
       </c>
       <c r="E277">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="F277">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G277">
-        <v>1390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -7033,22 +7053,22 @@
         <v>44</v>
       </c>
       <c r="B278">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C278">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D278" t="s">
         <v>4</v>
       </c>
       <c r="E278">
-        <v>482</v>
+        <v>626</v>
       </c>
       <c r="F278">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="G278">
-        <v>1546</v>
+        <v>588</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7056,22 +7076,22 @@
         <v>44</v>
       </c>
       <c r="B279">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="C279">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D279" t="s">
         <v>4</v>
       </c>
       <c r="E279">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="F279">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="G279">
-        <v>1734</v>
+        <v>807</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7079,22 +7099,22 @@
         <v>44</v>
       </c>
       <c r="B280">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C280">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D280" t="s">
         <v>4</v>
       </c>
       <c r="E280">
-        <v>654</v>
+        <v>593</v>
       </c>
       <c r="F280">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G280">
-        <v>1936</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7102,22 +7122,22 @@
         <v>44</v>
       </c>
       <c r="B281">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="C281">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D281" t="s">
         <v>4</v>
       </c>
       <c r="E281">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F281">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="G281">
-        <v>2150</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7125,22 +7145,22 @@
         <v>44</v>
       </c>
       <c r="B282">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="C282">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D282" t="s">
         <v>4</v>
       </c>
       <c r="E282">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="F282">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G282">
-        <v>2356</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7148,22 +7168,22 @@
         <v>44</v>
       </c>
       <c r="B283">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C283">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D283" t="s">
         <v>4</v>
       </c>
       <c r="E283">
-        <v>596</v>
+        <v>482</v>
       </c>
       <c r="F283">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="G283">
-        <v>2535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7171,22 +7191,22 @@
         <v>44</v>
       </c>
       <c r="B284">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C284">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D284" t="s">
         <v>4</v>
       </c>
       <c r="E284">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="F284">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="G284">
-        <v>2747</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7194,22 +7214,22 @@
         <v>44</v>
       </c>
       <c r="B285">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C285">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D285" t="s">
         <v>4</v>
       </c>
       <c r="E285">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F285">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G285">
-        <v>2926</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7217,22 +7237,22 @@
         <v>44</v>
       </c>
       <c r="B286">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C286">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D286" t="s">
         <v>4</v>
       </c>
       <c r="E286">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="F286">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="G286">
-        <v>3088</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7240,22 +7260,22 @@
         <v>44</v>
       </c>
       <c r="B287">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="C287">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D287" t="s">
         <v>4</v>
       </c>
       <c r="E287">
-        <v>683</v>
+        <v>639</v>
       </c>
       <c r="F287">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G287">
-        <v>3304</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7263,137 +7283,137 @@
         <v>44</v>
       </c>
       <c r="B288">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C288">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D288" t="s">
         <v>4</v>
       </c>
       <c r="E288">
-        <v>19</v>
+        <v>596</v>
       </c>
       <c r="F288">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="G288">
-        <v>3308</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B289">
-        <v>1915</v>
+        <v>2009</v>
       </c>
       <c r="C289">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D289" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E289">
-        <v>274</v>
+        <v>634</v>
       </c>
       <c r="F289">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="G289">
-        <v>78</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B290">
-        <v>1916</v>
+        <v>2010</v>
       </c>
       <c r="C290">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D290" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E290">
-        <v>580</v>
+        <v>663</v>
       </c>
       <c r="F290">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G290">
-        <v>255</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B291">
-        <v>1917</v>
+        <v>2011</v>
       </c>
       <c r="C291">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D291" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E291">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="F291">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="G291">
-        <v>445</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B292">
-        <v>1918</v>
+        <v>2012</v>
       </c>
       <c r="C292">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D292" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>452</v>
+        <v>683</v>
       </c>
       <c r="F292">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="G292">
-        <v>599</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B293">
-        <v>1919</v>
+        <v>2013</v>
       </c>
       <c r="C293">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D293" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E293">
-        <v>511</v>
+        <v>19</v>
       </c>
       <c r="F293">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="G293">
-        <v>779</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7401,22 +7421,22 @@
         <v>45</v>
       </c>
       <c r="B294">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="C294">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D294" t="s">
         <v>46</v>
       </c>
       <c r="E294">
-        <v>631</v>
+        <v>274</v>
       </c>
       <c r="F294">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="G294">
-        <v>1036</v>
+        <v>78</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7424,22 +7444,22 @@
         <v>45</v>
       </c>
       <c r="B295">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="C295">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D295" t="s">
         <v>46</v>
       </c>
       <c r="E295">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F295">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="G295">
-        <v>1252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7447,22 +7467,22 @@
         <v>45</v>
       </c>
       <c r="B296">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="C296">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D296" t="s">
         <v>46</v>
       </c>
       <c r="E296">
-        <v>586</v>
+        <v>539</v>
       </c>
       <c r="F296">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="G296">
-        <v>1498</v>
+        <v>445</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7470,19 +7490,22 @@
         <v>45</v>
       </c>
       <c r="B297">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="C297">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="D297" t="s">
+        <v>46</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G297">
-        <v>1498</v>
+        <v>599</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7490,22 +7513,22 @@
         <v>45</v>
       </c>
       <c r="B298">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="C298">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D298" t="s">
         <v>46</v>
       </c>
       <c r="E298">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="F298">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G298">
-        <v>1692</v>
+        <v>779</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7513,22 +7536,22 @@
         <v>45</v>
       </c>
       <c r="B299">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="C299">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D299" t="s">
         <v>46</v>
       </c>
       <c r="E299">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="F299">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="G299">
-        <v>1916</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7536,22 +7559,22 @@
         <v>45</v>
       </c>
       <c r="B300">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="C300">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D300" t="s">
         <v>46</v>
       </c>
       <c r="E300">
-        <v>613</v>
+        <v>582</v>
       </c>
       <c r="F300">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="G300">
-        <v>2094</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7559,22 +7582,22 @@
         <v>45</v>
       </c>
       <c r="B301">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="C301">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D301" t="s">
         <v>46</v>
       </c>
       <c r="E301">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="F301">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="G301">
-        <v>2295</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7582,22 +7605,19 @@
         <v>45</v>
       </c>
       <c r="B302">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="C302">
-        <v>35</v>
-      </c>
-      <c r="D302" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E302">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="G302">
-        <v>2474</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7605,22 +7625,22 @@
         <v>45</v>
       </c>
       <c r="B303">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="C303">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D303" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E303">
-        <v>49</v>
+        <v>636</v>
       </c>
       <c r="F303">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="G303">
-        <v>2486</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7628,22 +7648,22 @@
         <v>45</v>
       </c>
       <c r="B304">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="C304">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D304" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E304">
-        <v>491</v>
+        <v>649</v>
       </c>
       <c r="F304">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="G304">
-        <v>2653</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7651,22 +7671,22 @@
         <v>45</v>
       </c>
       <c r="B305">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="C305">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D305" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E305">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F305">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G305">
-        <v>2858</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7674,21 +7694,136 @@
         <v>45</v>
       </c>
       <c r="B306">
+        <v>1927</v>
+      </c>
+      <c r="C306">
+        <v>34</v>
+      </c>
+      <c r="D306" t="s">
+        <v>46</v>
+      </c>
+      <c r="E306">
+        <v>614</v>
+      </c>
+      <c r="F306">
+        <v>201</v>
+      </c>
+      <c r="G306">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>45</v>
+      </c>
+      <c r="B307">
+        <v>1928</v>
+      </c>
+      <c r="C307">
+        <v>35</v>
+      </c>
+      <c r="D307" t="s">
+        <v>47</v>
+      </c>
+      <c r="E307">
+        <v>540</v>
+      </c>
+      <c r="F307">
+        <v>179</v>
+      </c>
+      <c r="G307">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>45</v>
+      </c>
+      <c r="B308">
+        <v>1928</v>
+      </c>
+      <c r="C308">
+        <v>35</v>
+      </c>
+      <c r="D308" t="s">
+        <v>30</v>
+      </c>
+      <c r="E308">
+        <v>49</v>
+      </c>
+      <c r="F308">
+        <v>12</v>
+      </c>
+      <c r="G308">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>45</v>
+      </c>
+      <c r="B309">
+        <v>1928</v>
+      </c>
+      <c r="C309">
+        <v>35</v>
+      </c>
+      <c r="D309" t="s">
+        <v>48</v>
+      </c>
+      <c r="E309">
+        <v>491</v>
+      </c>
+      <c r="F309">
+        <v>167</v>
+      </c>
+      <c r="G309">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>45</v>
+      </c>
+      <c r="B310">
+        <v>1929</v>
+      </c>
+      <c r="C310">
+        <v>36</v>
+      </c>
+      <c r="D310" t="s">
+        <v>48</v>
+      </c>
+      <c r="E310">
+        <v>629</v>
+      </c>
+      <c r="F310">
+        <v>205</v>
+      </c>
+      <c r="G310">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>45</v>
+      </c>
+      <c r="B311">
         <v>1930</v>
       </c>
-      <c r="C306">
+      <c r="C311">
         <v>37</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D311" t="s">
         <v>48</v>
       </c>
-      <c r="E306">
+      <c r="E311">
         <v>431</v>
       </c>
-      <c r="F306">
+      <c r="F311">
         <v>133</v>
       </c>
-      <c r="G306">
+      <c r="G311">
         <v>2991</v>
       </c>
     </row>
